--- a/Code/Results/Cases/Case_2_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_32/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.869861746496952</v>
+        <v>3.869861746496781</v>
       </c>
       <c r="C2">
-        <v>1.105111072596912</v>
+        <v>1.105111072596628</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2678112003325346</v>
+        <v>0.2678112003324102</v>
       </c>
       <c r="F2">
-        <v>6.987772926125132</v>
+        <v>6.987772926125217</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.798462539474585</v>
+        <v>2.798462539474627</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.288838779602372</v>
+        <v>3.2888387796026</v>
       </c>
       <c r="C3">
-        <v>0.9364942649676209</v>
+        <v>0.936494264969042</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2204573260266489</v>
+        <v>0.2204573260267892</v>
       </c>
       <c r="F3">
-        <v>5.94058318925056</v>
+        <v>5.940583189250702</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.377919664383455</v>
+        <v>2.377919664383541</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.945420275936442</v>
+        <v>2.945420275936954</v>
       </c>
       <c r="C4">
-        <v>0.8371290890898138</v>
+        <v>0.8371290890892737</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1943026858831445</v>
+        <v>0.1943026858832742</v>
       </c>
       <c r="F4">
-        <v>5.326428088056048</v>
+        <v>5.326428088056076</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.132785804298479</v>
+        <v>2.132785804298464</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -529,16 +529,16 @@
         <v>2.808215950394924</v>
       </c>
       <c r="C5">
-        <v>0.7974813860001859</v>
+        <v>0.7974813859997312</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1842166436267583</v>
+        <v>0.1842166436267156</v>
       </c>
       <c r="F5">
-        <v>5.081999722060402</v>
+        <v>5.081999722060317</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.035528445234007</v>
+        <v>2.035528445233979</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.785582987383748</v>
+        <v>2.785582987383407</v>
       </c>
       <c r="C6">
-        <v>0.7909436648500616</v>
+        <v>0.79094366485009</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1825723503231469</v>
+        <v>0.1825723503230687</v>
       </c>
       <c r="F6">
         <v>5.041729467136264</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.019521434710214</v>
+        <v>2.019521434710242</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.94355952033186</v>
+        <v>2.943559520331519</v>
       </c>
       <c r="C7">
-        <v>0.8365912090802397</v>
+        <v>0.8365912090812344</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1941645335383519</v>
+        <v>0.1941645335384639</v>
       </c>
       <c r="F7">
         <v>5.32310964034275</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.666353558621608</v>
+        <v>3.666353558621552</v>
       </c>
       <c r="C8">
-        <v>1.045972217444103</v>
+        <v>1.045972217445268</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2507670635218773</v>
+        <v>0.250767063521943</v>
       </c>
       <c r="F8">
-        <v>6.619784194600157</v>
+        <v>6.619784194600413</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.650308158491868</v>
+        <v>2.65030815849201</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.224775058610987</v>
+        <v>5.224775058611556</v>
       </c>
       <c r="C9">
-        <v>1.501479452111425</v>
+        <v>1.501479452110289</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.395013744753463</v>
+        <v>0.3950137447535909</v>
       </c>
       <c r="F9">
-        <v>9.473829466587461</v>
+        <v>9.473829466587375</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.810231769977463</v>
+        <v>3.810231769977335</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.523422184640992</v>
+        <v>6.52342218464139</v>
       </c>
       <c r="C10">
-        <v>1.886630339456474</v>
+        <v>1.88663033945744</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5425738866709189</v>
+        <v>0.5425738866708052</v>
       </c>
       <c r="F10">
-        <v>11.9236257634945</v>
+        <v>11.92362576349427</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.826452309638114</v>
+        <v>4.82645230963783</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.171645345894262</v>
+        <v>7.171645345895001</v>
       </c>
       <c r="C11">
-        <v>2.081182556344515</v>
+        <v>2.081182556343265</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6273027379631095</v>
+        <v>0.6273027379632161</v>
       </c>
       <c r="F11">
-        <v>13.17506643967135</v>
+        <v>13.17506643967187</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5.353263853164151</v>
+        <v>5.353263853164435</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.428591361107351</v>
+        <v>7.428591361107578</v>
       </c>
       <c r="C12">
-        <v>2.158773740936795</v>
+        <v>2.158773740936908</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.6631868977531212</v>
+        <v>0.6631868977532989</v>
       </c>
       <c r="F12">
-        <v>13.67701055725018</v>
+        <v>13.67701055725024</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.372674474901032</v>
+        <v>7.37267447490035</v>
       </c>
       <c r="C13">
-        <v>2.141864399648284</v>
+        <v>2.141864399646693</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6552611057927749</v>
+        <v>0.6552611057926789</v>
       </c>
       <c r="F13">
         <v>13.56747898321964</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5.519561089712028</v>
+        <v>5.519561089712056</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.192530390702302</v>
+        <v>7.192530390701677</v>
       </c>
       <c r="C14">
-        <v>2.087478938680647</v>
+        <v>2.087478938679737</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6301688500754672</v>
+        <v>0.6301688500756484</v>
       </c>
       <c r="F14">
-        <v>13.21573599724388</v>
+        <v>13.215735997244</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5.370474086245991</v>
+        <v>5.370474086246105</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.083803250122344</v>
+        <v>7.083803250122628</v>
       </c>
       <c r="C15">
-        <v>2.054719847725323</v>
+        <v>2.0547198477243</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6153440287553664</v>
+        <v>0.6153440287554126</v>
       </c>
       <c r="F15">
-        <v>13.0042570561107</v>
+        <v>13.00425705611099</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>5.281044321448007</v>
+        <v>5.28104432144815</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.482458263373815</v>
+        <v>6.482458263373701</v>
       </c>
       <c r="C16">
-        <v>1.874390622563737</v>
+        <v>1.874390622563794</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0.5374840103205649</v>
       </c>
       <c r="F16">
-        <v>11.84522244510043</v>
+        <v>11.84522244510038</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.793623582092124</v>
+        <v>4.793623582092152</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -985,13 +985,13 @@
         <v>6.130140509859416</v>
       </c>
       <c r="C17">
-        <v>1.769376124878363</v>
+        <v>1.769376124877567</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4949336256960386</v>
+        <v>0.4949336256961274</v>
       </c>
       <c r="F17">
         <v>11.1740673070334</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4.513437409656177</v>
+        <v>4.513437409656262</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.932653093509884</v>
+        <v>5.932653093509771</v>
       </c>
       <c r="C18">
-        <v>1.710705756321829</v>
+        <v>1.710705756321374</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4720137552117158</v>
+        <v>0.4720137552118686</v>
       </c>
       <c r="F18">
-        <v>10.80027037277449</v>
+        <v>10.80027037277497</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.358033540106277</v>
+        <v>4.358033540106589</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.866596661529968</v>
+        <v>5.866596661529172</v>
       </c>
       <c r="C19">
-        <v>1.691111599216072</v>
+        <v>1.691111599216697</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4644919927913733</v>
+        <v>0.4644919927912952</v>
       </c>
       <c r="F19">
-        <v>10.67561633534393</v>
+        <v>10.67561633534402</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.306311014102505</v>
+        <v>4.306311014102647</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.16709284117087</v>
+        <v>6.167092841170756</v>
       </c>
       <c r="C20">
-        <v>1.780369319290799</v>
+        <v>1.780369319290855</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0.4992952858775084</v>
       </c>
       <c r="F20">
-        <v>11.24419872330108</v>
+        <v>11.24419872330105</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.245098126860853</v>
+        <v>7.245098126859602</v>
       </c>
       <c r="C21">
-        <v>2.103335006506029</v>
+        <v>2.103335006505858</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6374220830413044</v>
+        <v>0.6374220830412973</v>
       </c>
       <c r="F21">
-        <v>13.31820174551564</v>
+        <v>13.31820174551575</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>5.413860111738245</v>
+        <v>5.413860111738273</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1175,13 +1175,13 @@
         <v>8.019402632418519</v>
       </c>
       <c r="C22">
-        <v>2.338281625812499</v>
+        <v>2.338281625812442</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7511031669411388</v>
+        <v>0.7511031669413271</v>
       </c>
       <c r="F22">
         <v>14.8449301596786</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>6.064668221396715</v>
+        <v>6.064668221396687</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.598224850388817</v>
+        <v>7.59822485038967</v>
       </c>
       <c r="C23">
-        <v>2.210154066347798</v>
+        <v>2.210154066347116</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.6876383464303863</v>
+        <v>0.6876383464302691</v>
       </c>
       <c r="F23">
-        <v>14.01033166103269</v>
+        <v>14.01033166103275</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5.70787896981679</v>
+        <v>5.707878969816733</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.150371134973113</v>
+        <v>6.150371134973739</v>
       </c>
       <c r="C24">
-        <v>1.775394065825083</v>
+        <v>1.775394065826617</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4973186572439161</v>
+        <v>0.4973186572439374</v>
       </c>
       <c r="F24">
-        <v>11.21245531011027</v>
+        <v>11.21245531011047</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.529422984673516</v>
+        <v>4.529422984673658</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.782311106231248</v>
+        <v>4.782311106230793</v>
       </c>
       <c r="C25">
-        <v>1.371491257165303</v>
+        <v>1.371491257163939</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3507154502339667</v>
+        <v>0.3507154502339063</v>
       </c>
       <c r="F25">
-        <v>8.654735189734936</v>
+        <v>8.654735189735078</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.474758040361465</v>
+        <v>3.474758040361522</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_32/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.869861746496781</v>
+        <v>3.869861746496952</v>
       </c>
       <c r="C2">
-        <v>1.105111072596628</v>
+        <v>1.105111072596912</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2678112003324102</v>
+        <v>0.2678112003325346</v>
       </c>
       <c r="F2">
-        <v>6.987772926125217</v>
+        <v>6.987772926125132</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.798462539474627</v>
+        <v>2.798462539474585</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.2888387796026</v>
+        <v>3.288838779602372</v>
       </c>
       <c r="C3">
-        <v>0.936494264969042</v>
+        <v>0.9364942649676209</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2204573260267892</v>
+        <v>0.2204573260266489</v>
       </c>
       <c r="F3">
-        <v>5.940583189250702</v>
+        <v>5.94058318925056</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.377919664383541</v>
+        <v>2.377919664383455</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.945420275936954</v>
+        <v>2.945420275936442</v>
       </c>
       <c r="C4">
-        <v>0.8371290890892737</v>
+        <v>0.8371290890898138</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1943026858832742</v>
+        <v>0.1943026858831445</v>
       </c>
       <c r="F4">
-        <v>5.326428088056076</v>
+        <v>5.326428088056048</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.132785804298464</v>
+        <v>2.132785804298479</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -529,16 +529,16 @@
         <v>2.808215950394924</v>
       </c>
       <c r="C5">
-        <v>0.7974813859997312</v>
+        <v>0.7974813860001859</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1842166436267156</v>
+        <v>0.1842166436267583</v>
       </c>
       <c r="F5">
-        <v>5.081999722060317</v>
+        <v>5.081999722060402</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.035528445233979</v>
+        <v>2.035528445234007</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.785582987383407</v>
+        <v>2.785582987383748</v>
       </c>
       <c r="C6">
-        <v>0.79094366485009</v>
+        <v>0.7909436648500616</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1825723503230687</v>
+        <v>0.1825723503231469</v>
       </c>
       <c r="F6">
         <v>5.041729467136264</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.019521434710242</v>
+        <v>2.019521434710214</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.943559520331519</v>
+        <v>2.94355952033186</v>
       </c>
       <c r="C7">
-        <v>0.8365912090812344</v>
+        <v>0.8365912090802397</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1941645335384639</v>
+        <v>0.1941645335383519</v>
       </c>
       <c r="F7">
         <v>5.32310964034275</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.666353558621552</v>
+        <v>3.666353558621608</v>
       </c>
       <c r="C8">
-        <v>1.045972217445268</v>
+        <v>1.045972217444103</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.250767063521943</v>
+        <v>0.2507670635218773</v>
       </c>
       <c r="F8">
-        <v>6.619784194600413</v>
+        <v>6.619784194600157</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.65030815849201</v>
+        <v>2.650308158491868</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.224775058611556</v>
+        <v>5.224775058610987</v>
       </c>
       <c r="C9">
-        <v>1.501479452110289</v>
+        <v>1.501479452111425</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3950137447535909</v>
+        <v>0.395013744753463</v>
       </c>
       <c r="F9">
-        <v>9.473829466587375</v>
+        <v>9.473829466587461</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.810231769977335</v>
+        <v>3.810231769977463</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.52342218464139</v>
+        <v>6.523422184640992</v>
       </c>
       <c r="C10">
-        <v>1.88663033945744</v>
+        <v>1.886630339456474</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5425738866708052</v>
+        <v>0.5425738866709189</v>
       </c>
       <c r="F10">
-        <v>11.92362576349427</v>
+        <v>11.9236257634945</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.82645230963783</v>
+        <v>4.826452309638114</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.171645345895001</v>
+        <v>7.171645345894262</v>
       </c>
       <c r="C11">
-        <v>2.081182556343265</v>
+        <v>2.081182556344515</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6273027379632161</v>
+        <v>0.6273027379631095</v>
       </c>
       <c r="F11">
-        <v>13.17506643967187</v>
+        <v>13.17506643967135</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5.353263853164435</v>
+        <v>5.353263853164151</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.428591361107578</v>
+        <v>7.428591361107351</v>
       </c>
       <c r="C12">
-        <v>2.158773740936908</v>
+        <v>2.158773740936795</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.6631868977532989</v>
+        <v>0.6631868977531212</v>
       </c>
       <c r="F12">
-        <v>13.67701055725024</v>
+        <v>13.67701055725018</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.37267447490035</v>
+        <v>7.372674474901032</v>
       </c>
       <c r="C13">
-        <v>2.141864399646693</v>
+        <v>2.141864399648284</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6552611057926789</v>
+        <v>0.6552611057927749</v>
       </c>
       <c r="F13">
         <v>13.56747898321964</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5.519561089712056</v>
+        <v>5.519561089712028</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.192530390701677</v>
+        <v>7.192530390702302</v>
       </c>
       <c r="C14">
-        <v>2.087478938679737</v>
+        <v>2.087478938680647</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6301688500756484</v>
+        <v>0.6301688500754672</v>
       </c>
       <c r="F14">
-        <v>13.215735997244</v>
+        <v>13.21573599724388</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5.370474086246105</v>
+        <v>5.370474086245991</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.083803250122628</v>
+        <v>7.083803250122344</v>
       </c>
       <c r="C15">
-        <v>2.0547198477243</v>
+        <v>2.054719847725323</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6153440287554126</v>
+        <v>0.6153440287553664</v>
       </c>
       <c r="F15">
-        <v>13.00425705611099</v>
+        <v>13.0042570561107</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>5.28104432144815</v>
+        <v>5.281044321448007</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.482458263373701</v>
+        <v>6.482458263373815</v>
       </c>
       <c r="C16">
-        <v>1.874390622563794</v>
+        <v>1.874390622563737</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0.5374840103205649</v>
       </c>
       <c r="F16">
-        <v>11.84522244510038</v>
+        <v>11.84522244510043</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.793623582092152</v>
+        <v>4.793623582092124</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -985,13 +985,13 @@
         <v>6.130140509859416</v>
       </c>
       <c r="C17">
-        <v>1.769376124877567</v>
+        <v>1.769376124878363</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4949336256961274</v>
+        <v>0.4949336256960386</v>
       </c>
       <c r="F17">
         <v>11.1740673070334</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4.513437409656262</v>
+        <v>4.513437409656177</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.932653093509771</v>
+        <v>5.932653093509884</v>
       </c>
       <c r="C18">
-        <v>1.710705756321374</v>
+        <v>1.710705756321829</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4720137552118686</v>
+        <v>0.4720137552117158</v>
       </c>
       <c r="F18">
-        <v>10.80027037277497</v>
+        <v>10.80027037277449</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.358033540106589</v>
+        <v>4.358033540106277</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.866596661529172</v>
+        <v>5.866596661529968</v>
       </c>
       <c r="C19">
-        <v>1.691111599216697</v>
+        <v>1.691111599216072</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4644919927912952</v>
+        <v>0.4644919927913733</v>
       </c>
       <c r="F19">
-        <v>10.67561633534402</v>
+        <v>10.67561633534393</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.306311014102647</v>
+        <v>4.306311014102505</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.167092841170756</v>
+        <v>6.16709284117087</v>
       </c>
       <c r="C20">
-        <v>1.780369319290855</v>
+        <v>1.780369319290799</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0.4992952858775084</v>
       </c>
       <c r="F20">
-        <v>11.24419872330105</v>
+        <v>11.24419872330108</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.245098126859602</v>
+        <v>7.245098126860853</v>
       </c>
       <c r="C21">
-        <v>2.103335006505858</v>
+        <v>2.103335006506029</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6374220830412973</v>
+        <v>0.6374220830413044</v>
       </c>
       <c r="F21">
-        <v>13.31820174551575</v>
+        <v>13.31820174551564</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>5.413860111738273</v>
+        <v>5.413860111738245</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1175,13 +1175,13 @@
         <v>8.019402632418519</v>
       </c>
       <c r="C22">
-        <v>2.338281625812442</v>
+        <v>2.338281625812499</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7511031669413271</v>
+        <v>0.7511031669411388</v>
       </c>
       <c r="F22">
         <v>14.8449301596786</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>6.064668221396687</v>
+        <v>6.064668221396715</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.59822485038967</v>
+        <v>7.598224850388817</v>
       </c>
       <c r="C23">
-        <v>2.210154066347116</v>
+        <v>2.210154066347798</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.6876383464302691</v>
+        <v>0.6876383464303863</v>
       </c>
       <c r="F23">
-        <v>14.01033166103275</v>
+        <v>14.01033166103269</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5.707878969816733</v>
+        <v>5.70787896981679</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.150371134973739</v>
+        <v>6.150371134973113</v>
       </c>
       <c r="C24">
-        <v>1.775394065826617</v>
+        <v>1.775394065825083</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4973186572439374</v>
+        <v>0.4973186572439161</v>
       </c>
       <c r="F24">
-        <v>11.21245531011047</v>
+        <v>11.21245531011027</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.529422984673658</v>
+        <v>4.529422984673516</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.782311106230793</v>
+        <v>4.782311106231248</v>
       </c>
       <c r="C25">
-        <v>1.371491257163939</v>
+        <v>1.371491257165303</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3507154502339063</v>
+        <v>0.3507154502339667</v>
       </c>
       <c r="F25">
-        <v>8.654735189735078</v>
+        <v>8.654735189734936</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.474758040361522</v>
+        <v>3.474758040361465</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_32/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,37 +406,40 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.869861746496952</v>
+        <v>3.815928825399965</v>
       </c>
       <c r="C2">
-        <v>1.105111072596912</v>
+        <v>1.079549560283454</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2678112003325346</v>
+        <v>0.2775539075016376</v>
       </c>
       <c r="F2">
-        <v>6.987772926125132</v>
+        <v>6.966365637110442</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007488490076151872</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.798462539474585</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2.793488068534927</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -444,37 +447,40 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.288838779602372</v>
+        <v>3.244495933778524</v>
       </c>
       <c r="C3">
-        <v>0.9364942649676209</v>
+        <v>0.9143676851384726</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2204573260266489</v>
+        <v>0.2297103991579661</v>
       </c>
       <c r="F3">
-        <v>5.94058318925056</v>
+        <v>5.92554414631104</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007634779518100491</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.377919664383455</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2.376220205877502</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -482,37 +488,40 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.945420275936442</v>
+        <v>2.906796322689274</v>
       </c>
       <c r="C4">
-        <v>0.8371290890898138</v>
+        <v>0.8170504028456662</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1943026858831445</v>
+        <v>0.2032140826364799</v>
       </c>
       <c r="F4">
-        <v>5.326428088056048</v>
+        <v>5.314916931910005</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007725023590291878</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.132785804298479</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>2.1328816116132</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -520,37 +529,40 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.808215950394924</v>
+        <v>2.771894905028205</v>
       </c>
       <c r="C5">
-        <v>0.7974813860001859</v>
+        <v>0.7782273800339965</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1842166436267583</v>
+        <v>0.1929805946815009</v>
       </c>
       <c r="F5">
-        <v>5.081999722060402</v>
+        <v>5.071853903285813</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007762004517958437</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.035528445234007</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2.03631443535302</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -558,37 +570,40 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.785582987383748</v>
+        <v>2.74964304690991</v>
       </c>
       <c r="C6">
-        <v>0.7909436648500616</v>
+        <v>0.7718261390467092</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1825723503231469</v>
+        <v>0.1913113701412019</v>
       </c>
       <c r="F6">
-        <v>5.041729467136264</v>
+        <v>5.031806572794153</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007768160184717505</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.019521434710214</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>2.02041984038587</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -596,37 +611,40 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.94355952033186</v>
+        <v>2.904966719252343</v>
       </c>
       <c r="C7">
-        <v>0.8365912090802397</v>
+        <v>0.8165236782840282</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1941645335383519</v>
+        <v>0.2030739727827147</v>
       </c>
       <c r="F7">
-        <v>5.32310964034275</v>
+        <v>5.311617163512324</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007725521375223291</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.131464253693721</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>2.131569522211137</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -634,37 +652,40 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.666353558621608</v>
+        <v>3.61577272447596</v>
       </c>
       <c r="C8">
-        <v>1.045972217444103</v>
+        <v>1.021611546510769</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2507670635218773</v>
+        <v>0.2603510053477081</v>
       </c>
       <c r="F8">
-        <v>6.619784194600157</v>
+        <v>6.60066861423249</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007538909178907139</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.650308158491868</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2.64651657970775</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -672,37 +693,40 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.224775058610987</v>
+        <v>5.148392954437895</v>
       </c>
       <c r="C9">
-        <v>1.501479452111425</v>
+        <v>1.467864123108939</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.395013744753463</v>
+        <v>0.4054336266032514</v>
       </c>
       <c r="F9">
-        <v>9.473829466587461</v>
+        <v>9.435136246642742</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.000717054377074035</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.810231769977463</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>3.796233030773323</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -710,37 +734,40 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.523422184640992</v>
+        <v>6.424614163820593</v>
       </c>
       <c r="C10">
-        <v>1.886630339456474</v>
+        <v>1.844935788576663</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5425738866709189</v>
+        <v>0.5528711871433067</v>
       </c>
       <c r="F10">
-        <v>11.9236257634945</v>
+        <v>11.86395336864723</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0006887293727187886</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.826452309638114</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.801380567177432</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -748,37 +775,40 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.171645345894262</v>
+        <v>7.061001011494966</v>
       </c>
       <c r="C11">
-        <v>2.081182556344515</v>
+        <v>2.035204884916766</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6273027379631095</v>
+        <v>0.6371472551089674</v>
       </c>
       <c r="F11">
-        <v>13.17506643967135</v>
+        <v>13.10265392348873</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.000675170418335283</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5.353263853164151</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.321445047574542</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -786,37 +816,40 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.428591361107351</v>
+        <v>7.313091254931862</v>
       </c>
       <c r="C12">
-        <v>2.158773740936795</v>
+        <v>2.111034570188622</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.6631868977531212</v>
+        <v>0.6727586853807388</v>
       </c>
       <c r="F12">
-        <v>13.67701055725018</v>
+        <v>13.59901491398819</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0006698852889526561</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5.566074163897582</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.531296954207619</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -824,37 +857,40 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.372674474901032</v>
+        <v>7.258240015996137</v>
       </c>
       <c r="C13">
-        <v>2.141864399648284</v>
+        <v>2.094512035392256</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6552611057927749</v>
+        <v>0.6648972658976149</v>
       </c>
       <c r="F13">
-        <v>13.56747898321964</v>
+        <v>13.49072682053912</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0006710313865565531</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5.519561089712028</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.485442810293478</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -862,37 +898,40 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.192530390702302</v>
+        <v>7.08149518747166</v>
       </c>
       <c r="C14">
-        <v>2.087478938680647</v>
+        <v>2.041359571746455</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6301688500754672</v>
+        <v>0.6399933491899894</v>
       </c>
       <c r="F14">
-        <v>13.21573599724388</v>
+        <v>13.14288189052263</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0006747390301957701</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5.370474086245991</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.33842130690411</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -900,37 +939,40 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.083803250122344</v>
+        <v>6.974795863989641</v>
       </c>
       <c r="C15">
-        <v>2.054719847725323</v>
+        <v>2.009335410857716</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6153440287553664</v>
+        <v>0.6252687622707533</v>
       </c>
       <c r="F15">
-        <v>13.0042570561107</v>
+        <v>12.93367916941628</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0006769884099607808</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>5.281044321448007</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.250197532564385</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -938,37 +980,40 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.482458263373815</v>
+        <v>6.384380911257892</v>
       </c>
       <c r="C16">
-        <v>1.874390622563737</v>
+        <v>1.832960004837503</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5374840103205649</v>
+        <v>0.5477998823086239</v>
       </c>
       <c r="F16">
-        <v>11.84522244510043</v>
+        <v>11.78629726576884</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0006895978749822657</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.793623582092124</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.768947259612986</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -976,37 +1021,40 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.130140509859416</v>
+        <v>6.03827507018957</v>
       </c>
       <c r="C17">
-        <v>1.769376124878363</v>
+        <v>1.730187334328889</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4949336256960386</v>
+        <v>0.5053657524455382</v>
       </c>
       <c r="F17">
-        <v>11.1740673070334</v>
+        <v>11.12131639770689</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0006971296399853495</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4.513437409656177</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.492026386940807</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1014,37 +1062,40 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.932653093509884</v>
+        <v>5.84421814503952</v>
       </c>
       <c r="C18">
-        <v>1.710705756321829</v>
+        <v>1.672753500559793</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4720137552117158</v>
+        <v>0.4824791712984577</v>
       </c>
       <c r="F18">
-        <v>10.80027037277449</v>
+        <v>10.75079499131644</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007014025237892422</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.358033540106277</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.338352912351354</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1052,37 +1103,40 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.866596661529968</v>
+        <v>5.779301728921439</v>
       </c>
       <c r="C19">
-        <v>1.691111599216072</v>
+        <v>1.653570042493868</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4644919927913733</v>
+        <v>0.4749637688319339</v>
       </c>
       <c r="F19">
-        <v>10.67561633534393</v>
+        <v>10.62720876408164</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007028403514385719</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.306311014102505</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.28719413767098</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1090,37 +1144,40 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.16709284117087</v>
+        <v>6.074581618975913</v>
       </c>
       <c r="C20">
-        <v>1.780369319290799</v>
+        <v>1.740947637391855</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4992952858775084</v>
+        <v>0.5097187295435752</v>
       </c>
       <c r="F20">
-        <v>11.24419872330108</v>
+        <v>11.19082063630307</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0006963343097882461</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>4.54264528073162</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.520902765576295</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1128,37 +1185,40 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.245098126860853</v>
+        <v>7.133076193554189</v>
       </c>
       <c r="C21">
-        <v>2.103335006506029</v>
+        <v>2.056857860544369</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6374220830413044</v>
+        <v>0.6471945537685357</v>
       </c>
       <c r="F21">
-        <v>13.31820174551564</v>
+        <v>13.24422679981791</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0006736546553031978</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>5.413860111738245</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.381213446246107</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1166,37 +1226,40 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.019402632418519</v>
+        <v>7.892300363781715</v>
       </c>
       <c r="C22">
-        <v>2.338281625812499</v>
+        <v>2.286322505332237</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7511031669411388</v>
+        <v>0.7598027855104768</v>
       </c>
       <c r="F22">
-        <v>14.8449301596786</v>
+        <v>14.75271797830942</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006579057861749964</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>6.064668221396715</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.022358103761121</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1204,37 +1267,40 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.598224850388817</v>
+        <v>7.47945964128877</v>
       </c>
       <c r="C23">
-        <v>2.210154066347798</v>
+        <v>2.161228920745259</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.6876383464303863</v>
+        <v>0.6969967471463008</v>
       </c>
       <c r="F23">
-        <v>14.01033166103269</v>
+        <v>13.92846153152669</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0006664218057572668</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5.70787896981679</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.671048611613628</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1242,37 +1308,40 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.150371134973113</v>
+        <v>6.058152300740403</v>
       </c>
       <c r="C24">
-        <v>1.775394065825083</v>
+        <v>1.736077833716536</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4973186572439161</v>
+        <v>0.5077461283196527</v>
       </c>
       <c r="F24">
-        <v>11.21245531011027</v>
+        <v>11.15936160518297</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0006966940533048837</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.529422984673516</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.507830784771841</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1280,42 +1349,48 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.782311106231248</v>
+        <v>4.713317724200067</v>
       </c>
       <c r="C25">
-        <v>1.371491257165303</v>
+        <v>1.340529550307451</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3507154502339667</v>
+        <v>0.3609917263341629</v>
       </c>
       <c r="F25">
-        <v>8.654735189734936</v>
+        <v>8.622117449715546</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007271401601457993</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.474758040361465</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>3.46394684016137</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_32/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.815928825399965</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.079549560283454</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2775539075016376</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>6.966365637110442</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007488490076151872</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2.793488068534927</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,28 +456,34 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.244495933778524</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.9143676851384726</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2297103991579661</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>5.92554414631104</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.0007634779518100491</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>2.376220205877502</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,28 +503,34 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.906796322689274</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.8170504028456662</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2032140826364799</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>5.314916931910005</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0007725023590291878</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2.1328816116132</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -532,28 +550,34 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.771894905028205</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.7782273800339965</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1929805946815009</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>5.071853903285813</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.0007762004517958437</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2.03631443535302</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -573,28 +597,34 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.74964304690991</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.7718261390467092</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1913113701412019</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>5.031806572794153</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0007768160184717505</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>2.02041984038587</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -614,28 +644,34 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.904966719252343</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.8165236782840282</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2030739727827147</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>5.311617163512324</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>0.0007725521375223291</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2.131569522211137</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -655,28 +691,34 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.61577272447596</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1.021611546510769</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2603510053477081</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>6.60066861423249</v>
+        <v>1.390742831773494</v>
       </c>
       <c r="G8">
-        <v>0.0007538909178907139</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>2.64651657970775</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -696,28 +738,34 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.148392954437895</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1.467864123108939</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4054336266032514</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>9.435136246642742</v>
+        <v>1.895061171842784</v>
       </c>
       <c r="G9">
-        <v>0.000717054377074035</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>3.796233030773323</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -737,28 +785,34 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.424614163820593</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1.844935788576663</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5528711871433067</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>11.86395336864723</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.0006887293727187886</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.801380567177432</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -778,28 +832,34 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.061001011494966</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>2.035204884916766</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6371472551089674</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>13.10265392348873</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.000675170418335283</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.321445047574542</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -819,28 +879,34 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.313091254931862</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>2.111034570188622</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.6727586853807388</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>13.59901491398819</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0006698852889526561</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.531296954207619</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -860,28 +926,34 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.258240015996137</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>2.094512035392256</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6648972658976149</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>13.49072682053912</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>0.0006710313865565531</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.485442810293478</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -901,28 +973,34 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.08149518747166</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>2.041359571746455</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6399933491899894</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>13.14288189052263</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0006747390301957701</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.33842130690411</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -942,28 +1020,34 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.974795863989641</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>2.009335410857716</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6252687622707533</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>12.93367916941628</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.0006769884099607808</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.250197532564385</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -983,28 +1067,34 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.384380911257892</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>1.832960004837503</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5477998823086239</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>11.78629726576884</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0006895978749822657</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.768947259612986</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1024,28 +1114,34 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.03827507018957</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>1.730187334328889</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5053657524455382</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>11.12131639770689</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0006971296399853495</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.492026386940807</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1065,28 +1161,34 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.84421814503952</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>1.672753500559793</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4824791712984577</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>10.75079499131644</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0007014025237892422</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.338352912351354</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1106,28 +1208,34 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.779301728921439</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>1.653570042493868</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4749637688319339</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>10.62720876408164</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>0.0007028403514385719</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.28719413767098</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1147,28 +1255,34 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.074581618975913</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>1.740947637391855</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.5097187295435752</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>11.19082063630307</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0006963343097882461</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.520902765576295</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1188,28 +1302,34 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.133076193554189</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>2.056857860544369</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6471945537685357</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>13.24422679981791</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0006736546553031978</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.381213446246107</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1229,28 +1349,34 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.892300363781715</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>2.286322505332237</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7598027855104768</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>14.75271797830942</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0006579057861749964</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.022358103761121</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1270,28 +1396,34 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.47945964128877</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>2.161228920745259</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.6969967471463008</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>13.92846153152669</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.0006664218057572668</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.671048611613628</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1311,28 +1443,34 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.058152300740403</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>1.736077833716536</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.5077461283196527</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>11.15936160518297</v>
+        <v>2.170038921572853</v>
       </c>
       <c r="G24">
-        <v>0.0006966940533048837</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.507830784771841</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1352,28 +1490,34 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.713317724200067</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>1.340529550307451</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3609917263341629</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>8.622117449715546</v>
+        <v>1.757113814925077</v>
       </c>
       <c r="G25">
-        <v>0.0007271401601457993</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3.46394684016137</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1391,6 +1535,12 @@
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_32/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.30586042400131</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.396944174687718</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.365809471220501</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0008054740810940148</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.7141184100748745</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.681657307422</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.109093481950445</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1.127869837862733</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.3419495523512239</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1.169002048224755</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0008125812892581116</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.6814651230863689</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.451406300379944</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.146188085691541</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1.020258434424363</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.3089583060572068</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1.050998654377224</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0008170453172733028</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.6631136694651332</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.312483777438501</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.170861558136352</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.9767674194605434</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.2956820321512055</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1.003511846382978</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008188912115167566</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.6560267841198169</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.256401650629641</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.181366987941537</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.9695659533451817</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.2934869136606153</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9956598847237785</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.000819199381070352</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.654872678521528</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.247118871051327</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.183137908493613</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1.019670510941353</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.3087786116852271</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1.050355940021831</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008170701012958462</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.6630165527650291</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.311725397705573</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.171001445848319</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1.244103767819212</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.3778038846787695</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1.297289666233851</v>
       </c>
       <c r="F8">
-        <v>1.390742831773494</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0008079048493552541</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.7024848382385755</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.601702949108528</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.121473361473342</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1.700532860891826</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.5206935713789562</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1.809840979872206</v>
       </c>
       <c r="F9">
-        <v>1.895061171842784</v>
+        <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007906472251169878</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.7951356804362746</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.194196772298852</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.040721400472734</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>2.05059889885473</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.6324598338637202</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2.213074986697166</v>
       </c>
       <c r="F10">
         <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007782786879132274</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.8753169124780769</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.650999791987999</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.9934516102506166</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>2.214303084232768</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.6853604927792674</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2.40486037961044</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007726864784339997</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.9151604633653676</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.865309089555666</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.9751124734851118</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>2.27705678532709</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.7057460582769579</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2.478943994931313</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007705705673278773</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.9308049770289983</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.947577557610146</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.9686769800178894</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>2.26350561176605</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.7013389407875934</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2.462919294133471</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007710262455214064</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.9274096287675064</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.929806883850631</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.9700393844402981</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>2.219449827278027</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.6870301853282399</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2.410924411261476</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007725123863695758</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.9164359391733896</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.872053917239441</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.9745724784034593</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>2.192567597355605</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.6783135168163028</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2.379274422377136</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007734228136552514</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.9097890527777039</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2.836829412938073</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.9774171796746458</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>2.040000128471064</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.6290487590351859</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2.200730448718545</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007786445797699493</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.8727867646195548</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2.637139777105318</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.9947182347406027</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1.947627631886405</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.5993915361614484</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2.093508472225011</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007818546210682925</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.8509980207106196</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>2.516422219975368</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.006178366369952</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1.89490873685034</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.5825232501662754</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2.032605594272027</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007837043972740775</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.8387778977608136</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2.44758906395009</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.013064081795889</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1.877126248028901</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.5768429236755424</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2.012109748775757</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007843313811837302</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.8346919598395175</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2.424381440583943</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.015444464503744</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1.957417447121827</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.6025285707913781</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2.104841185671589</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007815125717566165</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.8532846698252996</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2.529209462758843</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.004927605281054</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>2.232368327326299</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.6912229248046913</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2.426154701222345</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007720758514620855</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.9196434419459436</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.88898556792094</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.973226708818288</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>2.416579051479118</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.7512822518149562</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2.64480830425093</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007659166809592347</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.9662988917359883</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>3.130717783070935</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.955507323009229</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>2.317804202979744</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.7190145889739483</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2.527219116948245</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007692043773675182</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.9410705302805695</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>3.001030756119746</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.9646699838263544</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1.952990274292318</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.6011097546123949</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2.099715378356578</v>
       </c>
       <c r="F24">
-        <v>2.170038921572853</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007816671986994693</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.8522499263494723</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2.523426591185569</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.005492152860043</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1.574851702880238</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.4810226536990569</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1.667263044373811</v>
       </c>
       <c r="F25">
-        <v>1.757113814925077</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.000795251309026149</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.7681688832326685</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2.030692371322516</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.060615555447882</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_32/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.30586042400131</v>
+        <v>0.5544001069889646</v>
       </c>
       <c r="C2">
-        <v>0.396944174687718</v>
+        <v>0.1552713413958884</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.365809471220501</v>
+        <v>0.4063313014106313</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.0008054740810940148</v>
+        <v>0.002480576375767879</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7141184100748745</v>
+        <v>0.9599267609142785</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.681657307422</v>
+        <v>0.6971803940531345</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.109093481950445</v>
+        <v>1.929438619397132</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.127869837862733</v>
+        <v>0.5083538329358248</v>
       </c>
       <c r="C3">
-        <v>0.3419495523512239</v>
+        <v>0.1412050085171188</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.169002048224755</v>
+        <v>0.354471983215717</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.0008125812892581116</v>
+        <v>0.002484735780926176</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6814651230863689</v>
+        <v>0.95651137849935</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.451406300379944</v>
+        <v>0.6378446721458317</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.146188085691541</v>
+        <v>1.943839180111866</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.020258434424363</v>
+        <v>0.4803733742890586</v>
       </c>
       <c r="C4">
-        <v>0.3089583060572068</v>
+        <v>0.1326589328876366</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.050998654377224</v>
+        <v>0.3227413578961489</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.0008170453172733028</v>
+        <v>0.002487419587129842</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6631136694651332</v>
+        <v>0.9549305461889332</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.312483777438501</v>
+        <v>0.6017906293586464</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.170861558136352</v>
+        <v>1.953334269360752</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9767674194605434</v>
+        <v>0.4690440095471899</v>
       </c>
       <c r="C5">
-        <v>0.2956820321512055</v>
+        <v>0.1291986999924575</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.003511846382978</v>
+        <v>0.3098365900024049</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0008188912115167566</v>
+        <v>0.002488546044842771</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6560267841198169</v>
+        <v>0.9544155965426668</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.256401650629641</v>
+        <v>0.587192411240494</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.181366987941537</v>
+        <v>1.957367306807882</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9695659533451817</v>
+        <v>0.4671671639702595</v>
       </c>
       <c r="C6">
-        <v>0.2934869136606153</v>
+        <v>0.1286254686080213</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.9956598847237785</v>
+        <v>0.3076952513674485</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.000819199381070352</v>
+        <v>0.002488735076146145</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.654872678521528</v>
+        <v>0.9543378798952844</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.247118871051327</v>
+        <v>0.5847740415279929</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.183137908493613</v>
+        <v>1.958046862478</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.019670510941353</v>
+        <v>0.4802202880836433</v>
       </c>
       <c r="C7">
-        <v>0.3087786116852271</v>
+        <v>0.1326121770195527</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.050355940021831</v>
+        <v>0.3225672184752284</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0008170701012958462</v>
+        <v>0.002487434646211647</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6630165527650291</v>
+        <v>0.9549230788067646</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.311725397705573</v>
+        <v>0.6015933730496954</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.171001445848319</v>
+        <v>1.953387998152778</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.244103767819212</v>
+        <v>0.5384623617430861</v>
       </c>
       <c r="C8">
-        <v>0.3778038846787695</v>
+        <v>0.1504021681102188</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.297289666233851</v>
+        <v>0.3884257566540015</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.0008079048493552541</v>
+        <v>0.002481983645591687</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.7024848382385755</v>
+        <v>0.9586416542023102</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.601702949108528</v>
+        <v>0.6766422668461303</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.121473361473342</v>
+        <v>1.934268075687577</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.700532860891826</v>
+        <v>0.6550249630679446</v>
       </c>
       <c r="C9">
-        <v>0.5206935713789562</v>
+        <v>0.1860301542989475</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.809840979872206</v>
+        <v>0.5185642331882008</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0007906472251169878</v>
+        <v>0.002472319707361947</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7951356804362746</v>
+        <v>0.9700565690817058</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.194196772298852</v>
+        <v>0.8268701230710178</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.040721400472734</v>
+        <v>1.901978854111078</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.05059889885473</v>
+        <v>0.7421503232249336</v>
       </c>
       <c r="C10">
-        <v>0.6324598338637202</v>
+        <v>0.212691752039234</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.213074986697166</v>
+        <v>0.6149391150779735</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0007782786879132274</v>
+        <v>0.002465837225213561</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8753169124780769</v>
+        <v>0.9809959466808493</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.650999791987999</v>
+        <v>0.9391952157226058</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9934516102506166</v>
+        <v>1.88146051550406</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.214303084232768</v>
+        <v>0.7821212175321648</v>
       </c>
       <c r="C11">
-        <v>0.6853604927792674</v>
+        <v>0.2249337423020847</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.40486037961044</v>
+        <v>0.6589832170875667</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0007726864784339997</v>
+        <v>0.002463020672195726</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.9151604633653676</v>
+        <v>0.986535657613139</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.865309089555666</v>
+        <v>0.9907390154241682</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9751124734851118</v>
+        <v>1.872828956118269</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.27705678532709</v>
+        <v>0.7973064662421052</v>
       </c>
       <c r="C12">
-        <v>0.7057460582769579</v>
+        <v>0.2295863457565588</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.478943994931313</v>
+        <v>0.6756934394994687</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0007705705673278773</v>
+        <v>0.002461973026851929</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.9308049770289983</v>
+        <v>0.9887150957378665</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.947577557610146</v>
+        <v>1.010322941466256</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9686769800178894</v>
+        <v>1.869662006069447</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.26350561176605</v>
+        <v>0.7940338551085233</v>
       </c>
       <c r="C13">
-        <v>0.7013389407875934</v>
+        <v>0.228583567797358</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.462919294133471</v>
+        <v>0.6720931445695868</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0007710262455214064</v>
+        <v>0.002462197816218237</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9274096287675064</v>
+        <v>0.9882420717894433</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.929806883850631</v>
+        <v>1.006102264296089</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9700393844402981</v>
+        <v>1.8703395349321</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.219449827278027</v>
+        <v>0.7833695284379587</v>
       </c>
       <c r="C14">
-        <v>0.6870301853282399</v>
+        <v>0.2253161746099863</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.410924411261476</v>
+        <v>0.6603573276514965</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0007725123863695758</v>
+        <v>0.002462934103111456</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.9164359391733896</v>
+        <v>0.9867133206825827</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.872053917239441</v>
+        <v>0.9923488790128943</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9745724784034593</v>
+        <v>1.872566368638104</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.192567597355605</v>
+        <v>0.7768437395634464</v>
       </c>
       <c r="C15">
-        <v>0.6783135168163028</v>
+        <v>0.2233170085451093</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.379274422377136</v>
+        <v>0.6531730019784163</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0007734228136552514</v>
+        <v>0.002463387561309636</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9097890527777039</v>
+        <v>0.9857875721527805</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.836829412938073</v>
+        <v>0.983933087271339</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9774171796746458</v>
+        <v>1.873943623479505</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.040000128471064</v>
+        <v>0.7395449712213633</v>
       </c>
       <c r="C16">
-        <v>0.6290487590351859</v>
+        <v>0.2118940361616808</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.200730448718545</v>
+        <v>0.6120650234433498</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0007786445797699493</v>
+        <v>0.002466023947555699</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8727867646195548</v>
+        <v>0.9806453057224687</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.637139777105318</v>
+        <v>0.9358357944957731</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9947182347406027</v>
+        <v>1.882038795413692</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.947627631886405</v>
+        <v>0.7167501964120788</v>
       </c>
       <c r="C17">
-        <v>0.5993915361614484</v>
+        <v>0.2049158397759356</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.093508472225011</v>
+        <v>0.5869003112338902</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337215605</v>
       </c>
       <c r="G17">
-        <v>0.0007818546210682925</v>
+        <v>0.002467675106524077</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8509980207106196</v>
+        <v>0.977635443847312</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.516422219975368</v>
+        <v>0.9064448780798102</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.006178366369952</v>
+        <v>1.887185257906424</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.89490873685034</v>
+        <v>0.7036709367806964</v>
       </c>
       <c r="C18">
-        <v>0.5825232501662754</v>
+        <v>0.2009128177552384</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.032605594272027</v>
+        <v>0.5724451583184731</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0007837043972740775</v>
+        <v>0.002468637274761859</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8387778977608136</v>
+        <v>0.9759572342787735</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.44758906395009</v>
+        <v>0.8895819590372867</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.013064081795889</v>
+        <v>1.890211435396992</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.877126248028901</v>
+        <v>0.6992479474929496</v>
       </c>
       <c r="C19">
-        <v>0.5768429236755424</v>
+        <v>0.1995592774506747</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.012109748775757</v>
+        <v>0.5675540656490909</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.6191636801734006</v>
       </c>
       <c r="G19">
-        <v>0.0007843313811837302</v>
+        <v>0.002468965192579863</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8346919598395175</v>
+        <v>0.9753981012376158</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.424381440583943</v>
+        <v>0.8838796348435949</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.015444464503744</v>
+        <v>1.891247375074286</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.957417447121827</v>
+        <v>0.7191734543835082</v>
       </c>
       <c r="C20">
-        <v>0.6025285707913781</v>
+        <v>0.2056575746045439</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.104841185671589</v>
+        <v>0.5895771609885401</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0007815125717566165</v>
+        <v>0.002467498048625243</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8532846698252996</v>
+        <v>0.9779503604564255</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.529209462758843</v>
+        <v>0.9095692401604083</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.004927605281054</v>
+        <v>1.886630565810151</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.232368327326299</v>
+        <v>0.7865005607458784</v>
       </c>
       <c r="C21">
-        <v>0.6912229248046913</v>
+        <v>0.226275426422859</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.426154701222345</v>
+        <v>0.6638035414960228</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
-        <v>0.0007720758514620855</v>
+        <v>0.0024627173251016</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.9196434419459436</v>
+        <v>0.9871601301112136</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.88898556792094</v>
+        <v>0.9963867968754698</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.973226708818288</v>
+        <v>1.871909530134261</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.416579051479118</v>
+        <v>0.8307894514430814</v>
       </c>
       <c r="C22">
-        <v>0.7512822518149562</v>
+        <v>0.2398487084437022</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.64480830425093</v>
+        <v>0.7125006117906736</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0007659166809592347</v>
+        <v>0.002459703086679897</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9662988917359883</v>
+        <v>0.9936555958114184</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.130717783070935</v>
+        <v>1.053508906526218</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.955507323009229</v>
+        <v>1.862881187541944</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.317804202979744</v>
+        <v>0.8071251785579534</v>
       </c>
       <c r="C23">
-        <v>0.7190145889739483</v>
+        <v>0.2325952262023065</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.527219116948245</v>
+        <v>0.6864922180367472</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307915566</v>
       </c>
       <c r="G23">
-        <v>0.0007692043773675182</v>
+        <v>0.002461301792127212</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9410705302805695</v>
+        <v>0.9901450359472364</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.001030756119746</v>
+        <v>1.022986424471526</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9646699838263544</v>
+        <v>1.867645337606746</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.952990274292318</v>
+        <v>0.7180778192669948</v>
       </c>
       <c r="C24">
-        <v>0.6011097546123949</v>
+        <v>0.2053222088061659</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.099715378356578</v>
+        <v>0.5883669188857823</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902313</v>
       </c>
       <c r="G24">
-        <v>0.0007816671986994693</v>
+        <v>0.002467578056569499</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8522499263494723</v>
+        <v>0.9778078241024133</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.523426591185569</v>
+        <v>0.9081566092862374</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.005492152860043</v>
+        <v>1.886881132170544</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.574851702880238</v>
+        <v>0.6232345578103775</v>
       </c>
       <c r="C25">
-        <v>0.4810226536990569</v>
+        <v>0.1763089860824891</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.667263044373811</v>
+        <v>0.4832360684474111</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347308</v>
       </c>
       <c r="G25">
-        <v>0.000795251309026149</v>
+        <v>0.002474825056439088</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7681688832326685</v>
+        <v>0.9665231102996685</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.030692371322516</v>
+        <v>0.7858931001148619</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.060615555447882</v>
+        <v>1.91015350134105</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_32/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5544001069889646</v>
+        <v>1.305860424001281</v>
       </c>
       <c r="C2">
-        <v>0.1552713413958884</v>
+        <v>0.3969441746878033</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4063313014106313</v>
+        <v>1.36580947122043</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002480576375767879</v>
+        <v>0.0008054740811213263</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9599267609142785</v>
+        <v>0.7141184100748603</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6971803940531345</v>
+        <v>1.681657307422057</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.929438619397132</v>
+        <v>1.109093481950417</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5083538329358248</v>
+        <v>1.127869837862761</v>
       </c>
       <c r="C3">
-        <v>0.1412050085171188</v>
+        <v>0.3419495523512524</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.354471983215717</v>
+        <v>1.169002048224783</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002484735780926176</v>
+        <v>0.0008125812892477049</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.95651137849935</v>
+        <v>0.6814651230863831</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6378446721458317</v>
+        <v>1.451406300379915</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.943839180111866</v>
+        <v>1.14618808569152</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4803733742890586</v>
+        <v>1.02025843442442</v>
       </c>
       <c r="C4">
-        <v>0.1326589328876366</v>
+        <v>0.3089583060570646</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3227413578961489</v>
+        <v>1.05099865437721</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002487419587129842</v>
+        <v>0.0008170453172419049</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.9549305461889332</v>
+        <v>0.6631136694651403</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6017906293586464</v>
+        <v>1.312483777438473</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.953334269360752</v>
+        <v>1.17086155813633</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4690440095471899</v>
+        <v>0.9767674194604581</v>
       </c>
       <c r="C5">
-        <v>0.1291986999924575</v>
+        <v>0.2956820321513476</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3098365900024049</v>
+        <v>1.00351184638302</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002488546044842771</v>
+        <v>0.0008188912115171496</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.9544155965426668</v>
+        <v>0.6560267841198026</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.587192411240494</v>
+        <v>1.256401650629499</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.957367306807882</v>
+        <v>1.18136698794148</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4671671639702595</v>
+        <v>0.9695659533452954</v>
       </c>
       <c r="C6">
-        <v>0.1286254686080213</v>
+        <v>0.2934869136606437</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3076952513674485</v>
+        <v>0.9956598847237785</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002488735076146145</v>
+        <v>0.0008191993810378988</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.9543378798952844</v>
+        <v>0.6548726785215351</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5847740415279929</v>
+        <v>1.247118871051356</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.958046862478</v>
+        <v>1.183137908493599</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4802202880836433</v>
+        <v>1.019670510941154</v>
       </c>
       <c r="C7">
-        <v>0.1326121770195527</v>
+        <v>0.308778611685085</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3225672184752284</v>
+        <v>1.050355940021845</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002487434646211647</v>
+        <v>0.0008170701012610293</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.9549230788067646</v>
+        <v>0.6630165527650504</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6015933730496954</v>
+        <v>1.311725397705544</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.953387998152778</v>
+        <v>1.171001445848326</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5384623617430861</v>
+        <v>1.244103767819269</v>
       </c>
       <c r="C8">
-        <v>0.1504021681102188</v>
+        <v>0.3778038846788547</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3884257566540015</v>
+        <v>1.297289666233851</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002481983645591687</v>
+        <v>0.0008079048493141631</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9586416542023102</v>
+        <v>0.7024848382385755</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6766422668461303</v>
+        <v>1.601702949108414</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.934268075687577</v>
+        <v>1.121473361473306</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6550249630679446</v>
+        <v>1.700532860891656</v>
       </c>
       <c r="C9">
-        <v>0.1860301542989475</v>
+        <v>0.5206935713790415</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5185642331882008</v>
+        <v>1.80984097987222</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171845327</v>
       </c>
       <c r="G9">
-        <v>0.002472319707361947</v>
+        <v>0.0007906472250686882</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.9700565690817058</v>
+        <v>0.7951356804362675</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8268701230710178</v>
+        <v>2.194196772298881</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.901978854111078</v>
+        <v>1.040721400472705</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7421503232249336</v>
+        <v>2.050598898854616</v>
       </c>
       <c r="C10">
-        <v>0.212691752039234</v>
+        <v>0.6324598338637202</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6149391150779735</v>
+        <v>2.213074986697151</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>0.002465837225213561</v>
+        <v>0.0007782786879391808</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.9809959466808493</v>
+        <v>0.8753169124780982</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9391952157226058</v>
+        <v>2.650999791988028</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.88146051550406</v>
+        <v>0.9934516102506166</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7821212175321648</v>
+        <v>2.214303084232654</v>
       </c>
       <c r="C11">
-        <v>0.2249337423020847</v>
+        <v>0.6853604927791821</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6589832170875667</v>
+        <v>2.404860379610426</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639217</v>
       </c>
       <c r="G11">
-        <v>0.002463020672195726</v>
+        <v>0.0007726864784125451</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.986535657613139</v>
+        <v>0.9151604633653605</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9907390154241682</v>
+        <v>2.865309089555751</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.872828956118269</v>
+        <v>0.9751124734850976</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7973064662421052</v>
+        <v>2.277056785327147</v>
       </c>
       <c r="C12">
-        <v>0.2295863457565588</v>
+        <v>0.7057460582769579</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.6756934394994687</v>
+        <v>2.478943994931285</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.002461973026851929</v>
+        <v>0.0007705705672762938</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.9887150957378665</v>
+        <v>0.9308049770290125</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.010322941466256</v>
+        <v>2.947577557610089</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.869662006069447</v>
+        <v>0.9686769800179462</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7940338551085233</v>
+        <v>2.263505611766107</v>
       </c>
       <c r="C13">
-        <v>0.228583567797358</v>
+        <v>0.701338940787906</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6720931445695868</v>
+        <v>2.4629192941334</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>0.002462197816218237</v>
+        <v>0.0007710262454407429</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9882420717894433</v>
+        <v>0.9274096287675206</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.006102264296089</v>
+        <v>2.929806883850574</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.8703395349321</v>
+        <v>0.9700393844403266</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7833695284379587</v>
+        <v>2.219449827278197</v>
       </c>
       <c r="C14">
-        <v>0.2253161746099863</v>
+        <v>0.6870301853282399</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6603573276514965</v>
+        <v>2.410924411261462</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002462934103111456</v>
+        <v>0.0007725123863986647</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.9867133206825827</v>
+        <v>0.9164359391733896</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9923488790128943</v>
+        <v>2.872053917239526</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.872566368638104</v>
+        <v>0.9745724784034451</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7768437395634464</v>
+        <v>2.192567597355549</v>
       </c>
       <c r="C15">
-        <v>0.2233170085451093</v>
+        <v>0.6783135168161607</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6531730019784163</v>
+        <v>2.379274422377165</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.002463387561309636</v>
+        <v>0.0007734228136728595</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9857875721527805</v>
+        <v>0.9097890527777039</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.983933087271339</v>
+        <v>2.836829412938016</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.873943623479505</v>
+        <v>0.9774171796746174</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7395449712213633</v>
+        <v>2.040000128470922</v>
       </c>
       <c r="C16">
-        <v>0.2118940361616808</v>
+        <v>0.6290487590352143</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6120650234433498</v>
+        <v>2.200730448718573</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002466023947555699</v>
+        <v>0.0007786445798173102</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.9806453057224687</v>
+        <v>0.8727867646195548</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9358357944957731</v>
+        <v>2.637139777105375</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.882038795413692</v>
+        <v>0.9947182347406027</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7167501964120788</v>
+        <v>1.947627631886377</v>
       </c>
       <c r="C17">
-        <v>0.2049158397759356</v>
+        <v>0.5993915361617042</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5869003112338902</v>
+        <v>2.093508472224983</v>
       </c>
       <c r="F17">
-        <v>0.6400460337215605</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.002467675106524077</v>
+        <v>0.0007818546210957664</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.977635443847312</v>
+        <v>0.8509980207106196</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9064448780798102</v>
+        <v>2.516422219975425</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.887185257906424</v>
+        <v>1.006178366369866</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7036709367806964</v>
+        <v>1.89490873685034</v>
       </c>
       <c r="C18">
-        <v>0.2009128177552384</v>
+        <v>0.5825232501663038</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5724451583184731</v>
+        <v>2.032605594272027</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>0.002468637274761859</v>
+        <v>0.0007837043971971306</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9759572342787735</v>
+        <v>0.8387778977608278</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8895819590372867</v>
+        <v>2.447589063950119</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.890211435396992</v>
+        <v>1.013064081795889</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6992479474929496</v>
+        <v>1.877126248028873</v>
       </c>
       <c r="C19">
-        <v>0.1995592774506747</v>
+        <v>0.5768429236755992</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5675540656490909</v>
+        <v>2.012109748775771</v>
       </c>
       <c r="F19">
-        <v>0.6191636801734006</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>0.002468965192579863</v>
+        <v>0.0007843313812004248</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.9753981012376158</v>
+        <v>0.8346919598395175</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8838796348435949</v>
+        <v>2.424381440584028</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.891247375074286</v>
+        <v>1.015444464503744</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7191734543835082</v>
+        <v>1.95741744712177</v>
       </c>
       <c r="C20">
-        <v>0.2056575746045439</v>
+        <v>0.6025285707914065</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.5895771609885401</v>
+        <v>2.104841185671589</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002467498048625243</v>
+        <v>0.0007815125717373981</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9779503604564255</v>
+        <v>0.8532846698252925</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9095692401604083</v>
+        <v>2.529209462758786</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.886630565810151</v>
+        <v>1.004927605281111</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7865005607458784</v>
+        <v>2.232368327326185</v>
       </c>
       <c r="C21">
-        <v>0.226275426422859</v>
+        <v>0.6912229248044071</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6638035414960228</v>
+        <v>2.426154701222387</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0024627173251016</v>
+        <v>0.000772075851510046</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.9871601301112136</v>
+        <v>0.9196434419459649</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9963867968754698</v>
+        <v>2.88898556792094</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.871909530134261</v>
+        <v>0.9732267088183875</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8307894514430814</v>
+        <v>2.416579051479175</v>
       </c>
       <c r="C22">
-        <v>0.2398487084437022</v>
+        <v>0.7512822518154962</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7125006117906736</v>
+        <v>2.644808304250944</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031955</v>
       </c>
       <c r="G22">
-        <v>0.002459703086679897</v>
+        <v>0.0007659166809593776</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9936555958114184</v>
+        <v>0.9662988917360025</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.053508906526218</v>
+        <v>3.13071778307085</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.862881187541944</v>
+        <v>0.955507323009229</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8071251785579534</v>
+        <v>2.317804202979573</v>
       </c>
       <c r="C23">
-        <v>0.2325952262023065</v>
+        <v>0.7190145889742041</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.6864922180367472</v>
+        <v>2.527219116948245</v>
       </c>
       <c r="F23">
-        <v>0.7472568307915566</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.002461301792127212</v>
+        <v>0.0007692043774166715</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9901450359472364</v>
+        <v>0.9410705302805553</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.022986424471526</v>
+        <v>3.001030756119718</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.867645337606746</v>
+        <v>0.9646699838263544</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7180778192669948</v>
+        <v>1.952990274292262</v>
       </c>
       <c r="C24">
-        <v>0.2053222088061659</v>
+        <v>0.601109754612537</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.5883669188857823</v>
+        <v>2.099715378356578</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902313</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002467578056569499</v>
+        <v>0.000781667198653407</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9778078241024133</v>
+        <v>0.8522499263494936</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.9081566092862374</v>
+        <v>2.523426591185654</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.886881132170544</v>
+        <v>1.005492152859972</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6232345578103775</v>
+        <v>1.574851702879954</v>
       </c>
       <c r="C25">
-        <v>0.1763089860824891</v>
+        <v>0.4810226536990854</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4832360684474111</v>
+        <v>1.667263044373797</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347308</v>
+        <v>1.757113814925077</v>
       </c>
       <c r="G25">
-        <v>0.002474825056439088</v>
+        <v>0.0007952513090679075</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.9665231102996685</v>
+        <v>0.7681688832326614</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7858931001148619</v>
+        <v>2.030692371322516</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.91015350134105</v>
+        <v>1.060615555447882</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_32/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.305860424001281</v>
+        <v>3.392437412840479</v>
       </c>
       <c r="C2">
-        <v>0.3969441746878033</v>
+        <v>0.6113516995350494</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.36580947122043</v>
+        <v>0.04789810036021969</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0008054740811213263</v>
+        <v>0.580280706534694</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0004616275880588994</v>
       </c>
       <c r="I2">
-        <v>0.7141184100748603</v>
+        <v>0.0011410046135234</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.428255720269803</v>
       </c>
       <c r="K2">
-        <v>1.681657307422057</v>
+        <v>0.3754958947394691</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,45 +463,51 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.109093481950417</v>
+        <v>0.3595190714122225</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.127869837862761</v>
+        <v>2.955124568023223</v>
       </c>
       <c r="C3">
-        <v>0.3419495523512524</v>
+        <v>0.5391958830381611</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.169002048224783</v>
+        <v>0.04448010997749829</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0008125812892477049</v>
+        <v>0.5469674042975896</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.001384152521173521</v>
       </c>
       <c r="I3">
-        <v>0.6814651230863831</v>
+        <v>0.002288970364360488</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4190796397000298</v>
       </c>
       <c r="K3">
-        <v>1.451406300379915</v>
+        <v>0.3780836821328357</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,45 +516,51 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.14618808569152</v>
+        <v>0.3151848360644323</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02025843442442</v>
+        <v>2.686505767003553</v>
       </c>
       <c r="C4">
-        <v>0.3089583060570646</v>
+        <v>0.4951857133623321</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.05099865437721</v>
+        <v>0.04237211341359703</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0008170453172419049</v>
+        <v>0.5271067929583637</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.002224777524672761</v>
       </c>
       <c r="I4">
-        <v>0.6631136694651403</v>
+        <v>0.003335441067978895</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4138342987973971</v>
       </c>
       <c r="K4">
-        <v>1.312483777438473</v>
+        <v>0.380008391151172</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,45 +569,51 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.17086155813633</v>
+        <v>0.2880318699106397</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9767674194604581</v>
+        <v>2.576974294399577</v>
       </c>
       <c r="C5">
-        <v>0.2956820321513476</v>
+        <v>0.4779811463261581</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.00351184638302</v>
+        <v>0.0414754474624317</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0008188912115171496</v>
+        <v>0.5175563104088923</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.002635121169100807</v>
       </c>
       <c r="I5">
-        <v>0.6560267841198026</v>
+        <v>0.003919797046381124</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4109589428851308</v>
       </c>
       <c r="K5">
-        <v>1.256401650629499</v>
+        <v>0.379957451037054</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,45 +622,51 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.18136698794148</v>
+        <v>0.2770538455019675</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9695659533452954</v>
+        <v>2.558763543569341</v>
       </c>
       <c r="C6">
-        <v>0.2934869136606437</v>
+        <v>0.475945852964287</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.9956598847237785</v>
+        <v>0.04128464438676893</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0008191993810378988</v>
+        <v>0.5140363730414919</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.002710376898388933</v>
       </c>
       <c r="I6">
-        <v>0.6548726785215351</v>
+        <v>0.004122916549629707</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4094753513565337</v>
       </c>
       <c r="K6">
-        <v>1.247118871051356</v>
+        <v>0.378840429401393</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,45 +675,51 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.183137908493599</v>
+        <v>0.275322697300183</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.019670510941154</v>
+        <v>2.684971830286997</v>
       </c>
       <c r="C7">
-        <v>0.308778611685085</v>
+        <v>0.4971939164152843</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.050355940021845</v>
+        <v>0.04224621154095232</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.0008170701012610293</v>
+        <v>0.5216676218769152</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.002237962809602645</v>
       </c>
       <c r="I7">
-        <v>0.6630165527650504</v>
+        <v>0.003602311812794134</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4110332136501853</v>
       </c>
       <c r="K7">
-        <v>1.311725397705544</v>
+        <v>0.3769678306109761</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,45 +728,51 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.171001445848326</v>
+        <v>0.2881333544643496</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.244103767819269</v>
+        <v>3.241564690906955</v>
       </c>
       <c r="C8">
-        <v>0.3778038846788547</v>
+        <v>0.589401261163772</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.297289666233851</v>
+        <v>0.04657027625413424</v>
       </c>
       <c r="F8">
-        <v>1.39074283177348</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0008079048493141631</v>
+        <v>0.5616305274750744</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0007260608365498022</v>
       </c>
       <c r="I8">
-        <v>0.7024848382385755</v>
+        <v>0.001767322212700151</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4213648704206889</v>
       </c>
       <c r="K8">
-        <v>1.601702949108414</v>
+        <v>0.3723168702750144</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,45 +781,51 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.121473361473306</v>
+        <v>0.3445492554658642</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.700532860891656</v>
+        <v>4.333578629899193</v>
       </c>
       <c r="C9">
-        <v>0.5206935713790415</v>
+        <v>0.7690225909354069</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.80984097987222</v>
+        <v>0.05523527240696957</v>
       </c>
       <c r="F9">
-        <v>1.895061171845327</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.0007906472250686882</v>
+        <v>0.6549668434503246</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0001149978351726588</v>
       </c>
       <c r="I9">
-        <v>0.7951356804362675</v>
+        <v>0.0007333532762672235</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.4499641745603071</v>
       </c>
       <c r="K9">
-        <v>2.194196772298881</v>
+        <v>0.3715411122215322</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,45 +834,51 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.040721400472705</v>
+        <v>0.4554918915664672</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.050598898854616</v>
+        <v>5.137352862945136</v>
       </c>
       <c r="C10">
-        <v>0.6324598338637202</v>
+        <v>0.9119609027611091</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.213074986697151</v>
+        <v>0.05946408250986668</v>
       </c>
       <c r="F10">
         <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>0.0007782786879391808</v>
+        <v>0.6994242842334586</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.00145708652260268</v>
       </c>
       <c r="I10">
-        <v>0.8753169124780982</v>
+        <v>0.002189464695618426</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.4589652071645816</v>
       </c>
       <c r="K10">
-        <v>2.650999791988028</v>
+        <v>0.3580271840625251</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,45 +887,51 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9934516102506166</v>
+        <v>0.5172673293195942</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.214303084232654</v>
+        <v>5.498029089478791</v>
       </c>
       <c r="C11">
-        <v>0.6853604927791821</v>
+        <v>1.048601981019857</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.404860379610426</v>
+        <v>0.04980568286281439</v>
       </c>
       <c r="F11">
-        <v>2.451628164639217</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007726864784125451</v>
+        <v>0.5068271428077367</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02008880747292707</v>
       </c>
       <c r="I11">
-        <v>0.9151604633653605</v>
+        <v>0.003310509814832052</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3539298446250569</v>
       </c>
       <c r="K11">
-        <v>2.865309089555751</v>
+        <v>0.2469187877825263</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,45 +940,51 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9751124734850976</v>
+        <v>0.3806837676876853</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.277056785327147</v>
+        <v>5.632853570269219</v>
       </c>
       <c r="C12">
-        <v>0.7057460582769579</v>
+        <v>1.134775810232782</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.478943994931285</v>
+        <v>0.05059530931317191</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>2.518780942186353</v>
       </c>
       <c r="G12">
-        <v>0.0007705705672762938</v>
+        <v>0.3660914189999716</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05862535356776988</v>
       </c>
       <c r="I12">
-        <v>0.9308049770290125</v>
+        <v>0.003441358978864884</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2786200530020153</v>
       </c>
       <c r="K12">
-        <v>2.947577557610089</v>
+        <v>0.1819177103671361</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,45 +993,51 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9686769800179462</v>
+        <v>0.2710604488889317</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.263505611766107</v>
+        <v>5.600069619134956</v>
       </c>
       <c r="C13">
-        <v>0.701338940787906</v>
+        <v>1.189635825900893</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.4629192941334</v>
+        <v>0.05904962432051164</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.0007710262454407429</v>
+        <v>0.2484027186527626</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1140586712140816</v>
       </c>
       <c r="I13">
-        <v>0.9274096287675206</v>
+        <v>0.003101944484630081</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2172126548804769</v>
       </c>
       <c r="K13">
-        <v>2.929806883850574</v>
+        <v>0.143182709958138</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,45 +1046,51 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9700393844403266</v>
+        <v>0.1768511416609329</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.219449827278197</v>
+        <v>5.501235851774879</v>
       </c>
       <c r="C14">
-        <v>0.6870301853282399</v>
+        <v>1.214798570146456</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.410924411261462</v>
+        <v>0.06959550507247947</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>2.457142640142266</v>
       </c>
       <c r="G14">
-        <v>0.0007725123863986647</v>
+        <v>0.1791557958862668</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.163137247374209</v>
       </c>
       <c r="I14">
-        <v>0.9164359391733896</v>
+        <v>0.002766355147384658</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1817332425260503</v>
       </c>
       <c r="K14">
-        <v>2.872053917239526</v>
+        <v>0.1304311130697351</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,45 +1099,51 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9745724784034451</v>
+        <v>0.1211033802403847</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.192567597355549</v>
+        <v>5.441353631655375</v>
       </c>
       <c r="C15">
-        <v>0.6783135168161607</v>
+        <v>1.214597907544032</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.379274422377165</v>
+        <v>0.07253445721723928</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.0007734228136728595</v>
+        <v>0.1634129896317305</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1755293360411514</v>
       </c>
       <c r="I15">
-        <v>0.9097890527777039</v>
+        <v>0.002706920537142388</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1741661332148041</v>
       </c>
       <c r="K15">
-        <v>2.836829412938016</v>
+        <v>0.1299852805579556</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,45 +1152,51 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9774171796746174</v>
+        <v>0.1085258564958664</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.040000128470922</v>
+        <v>5.100583626767218</v>
       </c>
       <c r="C16">
-        <v>0.6290487590352143</v>
+        <v>1.140660254689408</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.200730448718573</v>
+        <v>0.06865576794934292</v>
       </c>
       <c r="F16">
         <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.0007786445798173102</v>
+        <v>0.1668070481458912</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1622549646290423</v>
       </c>
       <c r="I16">
-        <v>0.8727867646195548</v>
+        <v>0.002108248078459773</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1815830600413406</v>
       </c>
       <c r="K16">
-        <v>2.637139777105375</v>
+        <v>0.141674296895571</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,45 +1205,51 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9947182347406027</v>
+        <v>0.104447932843307</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.947627631886377</v>
+        <v>4.892477902734186</v>
       </c>
       <c r="C17">
-        <v>0.5993915361617042</v>
+        <v>1.070896139287328</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.093508472224983</v>
+        <v>0.05929001228318498</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007818546210957664</v>
+        <v>0.2037367583661549</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.124242659113321</v>
       </c>
       <c r="I17">
-        <v>0.8509980207106196</v>
+        <v>0.001905896762501413</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2050290076813184</v>
       </c>
       <c r="K17">
-        <v>2.516422219975425</v>
+        <v>0.1555596481135559</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,45 +1258,51 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.006178366369866</v>
+        <v>0.1286535375061817</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.89490873685034</v>
+        <v>4.774198355668261</v>
       </c>
       <c r="C18">
-        <v>0.5825232501663038</v>
+        <v>0.9962415034251251</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.032605594272027</v>
+        <v>0.04868689797836723</v>
       </c>
       <c r="F18">
-        <v>2.107028586650742</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0007837043971971306</v>
+        <v>0.2876607614430426</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.0713778232607325</v>
       </c>
       <c r="I18">
-        <v>0.8387778977608278</v>
+        <v>0.001618668261543554</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2517759394590655</v>
       </c>
       <c r="K18">
-        <v>2.447589063950119</v>
+        <v>0.1840315628230407</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,45 +1311,51 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.013064081795889</v>
+        <v>0.1895534207169334</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.877126248028873</v>
+        <v>4.73638546475047</v>
       </c>
       <c r="C19">
-        <v>0.5768429236755992</v>
+        <v>0.9306527537515308</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.012109748775771</v>
+        <v>0.04471923738323547</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.0007843313812004248</v>
+        <v>0.4154602235058746</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02627196286628219</v>
       </c>
       <c r="I19">
-        <v>0.8346919598395175</v>
+        <v>0.001781648986526108</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3194108737384056</v>
       </c>
       <c r="K19">
-        <v>2.424381440584028</v>
+        <v>0.235928704288412</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,45 +1364,51 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.015444464503744</v>
+        <v>0.2909461651661758</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.95741744712177</v>
+        <v>4.925734197164957</v>
       </c>
       <c r="C20">
-        <v>0.6025285707914065</v>
+        <v>0.8817925288541346</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.104841185671589</v>
+        <v>0.05790771185037791</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007815125717373981</v>
+        <v>0.6700542214712613</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0009528537532470516</v>
       </c>
       <c r="I20">
-        <v>0.8532846698252925</v>
+        <v>0.002386267775645656</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.4474802670219304</v>
       </c>
       <c r="K20">
-        <v>2.529209462758786</v>
+        <v>0.3518107290740815</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,45 +1417,51 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.004927605281111</v>
+        <v>0.5009323685010258</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.232368327326185</v>
+        <v>5.544805566366506</v>
       </c>
       <c r="C21">
-        <v>0.6912229248044071</v>
+        <v>0.9797577157329727</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.426154701222387</v>
+        <v>0.06460177926508592</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.000772075851510046</v>
+        <v>0.7493821986916345</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.002483234997052164</v>
       </c>
       <c r="I21">
-        <v>0.9196434419459649</v>
+        <v>0.004175809378799578</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.4776061015939206</v>
       </c>
       <c r="K21">
-        <v>2.88898556792094</v>
+        <v>0.365322845927281</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,45 +1470,51 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9732267088183875</v>
+        <v>0.5804505006754539</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.416579051479175</v>
+        <v>5.950313921081545</v>
       </c>
       <c r="C22">
-        <v>0.7512822518154962</v>
+        <v>1.0452038653317</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.644808304250944</v>
+        <v>0.06807498690058544</v>
       </c>
       <c r="F22">
-        <v>2.667416158031955</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.0007659166809593776</v>
+        <v>0.7961761007263561</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.003928278148651376</v>
       </c>
       <c r="I22">
-        <v>0.9662988917360025</v>
+        <v>0.005549185120446332</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.4947492663459059</v>
       </c>
       <c r="K22">
-        <v>3.13071778307085</v>
+        <v>0.3716175889872488</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,45 +1523,51 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.955507323009229</v>
+        <v>0.6218291394750111</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.317804202979573</v>
+        <v>5.733915241543627</v>
       </c>
       <c r="C23">
-        <v>0.7190145889742041</v>
+        <v>1.007441253735948</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.527219116948245</v>
+        <v>0.06635136207022008</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0.0007692043774166715</v>
+        <v>0.7773074305288787</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.003126529638062592</v>
       </c>
       <c r="I23">
-        <v>0.9410705302805553</v>
+        <v>0.004493323282932948</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.4887276237172955</v>
       </c>
       <c r="K23">
-        <v>3.001030756119718</v>
+        <v>0.3716584338111133</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,45 +1576,51 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9646699838263544</v>
+        <v>0.5994136347906789</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.952990274292262</v>
+        <v>4.916339291822737</v>
       </c>
       <c r="C24">
-        <v>0.601109754612537</v>
+        <v>0.8702054413867018</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.099715378356578</v>
+        <v>0.05970237124144973</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.170038921572853</v>
       </c>
       <c r="G24">
-        <v>0.000781667198653407</v>
+        <v>0.6986456006865893</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0008870456010876548</v>
       </c>
       <c r="I24">
-        <v>0.8522499263494936</v>
+        <v>0.001930726785436043</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.4622986368955253</v>
       </c>
       <c r="K24">
-        <v>2.523426591185654</v>
+        <v>0.3675918022674374</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,45 +1629,51 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.005492152859972</v>
+        <v>0.5155150247625215</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.574851702879954</v>
+        <v>4.037761243868545</v>
       </c>
       <c r="C25">
-        <v>0.4810226536990854</v>
+        <v>0.7241993305789265</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.667263044373797</v>
+        <v>0.05267943463971392</v>
       </c>
       <c r="F25">
-        <v>1.757113814925077</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0.0007952513090679075</v>
+        <v>0.6194494433707547</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>4.19368368476114E-07</v>
       </c>
       <c r="I25">
-        <v>0.7681688832326614</v>
+        <v>0.001080165915254838</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.4368756456567553</v>
       </c>
       <c r="K25">
-        <v>2.030692371322516</v>
+        <v>0.36600896306987</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,9 +1682,15 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.060615555447882</v>
+        <v>0.4258257644300869</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_32/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.392437412840479</v>
+        <v>3.398485798949935</v>
       </c>
       <c r="C2">
-        <v>0.6113516995350494</v>
+        <v>0.6414129928738816</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04789810036021969</v>
+        <v>0.04568329363042345</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.580280706534694</v>
+        <v>0.4618795714553841</v>
       </c>
       <c r="H2">
-        <v>0.0004616275880588994</v>
+        <v>0.0002529647442439664</v>
       </c>
       <c r="I2">
-        <v>0.0011410046135234</v>
+        <v>0.0008486907919564857</v>
       </c>
       <c r="J2">
-        <v>0.428255720269803</v>
+        <v>0.4102962960849084</v>
       </c>
       <c r="K2">
-        <v>0.3754958947394691</v>
+        <v>0.3113433503288867</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1584921533720092</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.08243624463526089</v>
       </c>
       <c r="N2">
-        <v>0.3595190714122225</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.3681271198181122</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.955124568023223</v>
+        <v>2.961458246415873</v>
       </c>
       <c r="C3">
-        <v>0.5391958830381611</v>
+        <v>0.5610001211895792</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04448010997749829</v>
+        <v>0.04293411036946271</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.5469674042975896</v>
+        <v>0.4443399955120384</v>
       </c>
       <c r="H3">
-        <v>0.001384152521173521</v>
+        <v>0.0009037221590375566</v>
       </c>
       <c r="I3">
-        <v>0.002288970364360488</v>
+        <v>0.001543856204071048</v>
       </c>
       <c r="J3">
-        <v>0.4190796397000298</v>
+        <v>0.4045830181930796</v>
       </c>
       <c r="K3">
-        <v>0.3780836821328357</v>
+        <v>0.3201708836924588</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1648866893206602</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.08368164511441734</v>
       </c>
       <c r="N3">
-        <v>0.3151848360644323</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.3233095724574895</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.686505767003553</v>
+        <v>2.692769205121976</v>
       </c>
       <c r="C4">
-        <v>0.4951857133623321</v>
+        <v>0.5120209034041636</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04237211341359703</v>
+        <v>0.04123056847247142</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>1.139972825279798</v>
       </c>
       <c r="G4">
-        <v>0.5271067929583637</v>
+        <v>0.4341063251173978</v>
       </c>
       <c r="H4">
-        <v>0.002224777524672761</v>
+        <v>0.00152436532057787</v>
       </c>
       <c r="I4">
-        <v>0.003335441067978895</v>
+        <v>0.002235719148873105</v>
       </c>
       <c r="J4">
-        <v>0.4138342987973971</v>
+        <v>0.4011098927959296</v>
       </c>
       <c r="K4">
-        <v>0.380008391151172</v>
+        <v>0.3258344160688473</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1689026081422824</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.08506372638512794</v>
       </c>
       <c r="N4">
-        <v>0.2880318699106397</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2958498243169601</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.576974294399577</v>
+        <v>2.583152377076317</v>
       </c>
       <c r="C5">
-        <v>0.4779811463261581</v>
+        <v>0.4927626149726336</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0414754474624317</v>
+        <v>0.04050356425706614</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.5175563104088923</v>
+        <v>0.4287956808164921</v>
       </c>
       <c r="H5">
-        <v>0.002635121169100807</v>
+        <v>0.001831864413892825</v>
       </c>
       <c r="I5">
-        <v>0.003919797046381124</v>
+        <v>0.002668671305711356</v>
       </c>
       <c r="J5">
-        <v>0.4109589428851308</v>
+        <v>0.3990168058215033</v>
       </c>
       <c r="K5">
-        <v>0.379957451037054</v>
+        <v>0.3275104672542568</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1702201257193146</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.08560256551872669</v>
       </c>
       <c r="N5">
-        <v>0.2770538455019675</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2847351063240211</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.558763543569341</v>
+        <v>2.564922425544523</v>
       </c>
       <c r="C6">
-        <v>0.475945852964287</v>
+        <v>0.4903205280485849</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04128464438676893</v>
+        <v>0.04034832334072291</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.5140363730414919</v>
+        <v>0.4263834843055037</v>
       </c>
       <c r="H6">
-        <v>0.002710376898388933</v>
+        <v>0.001888520502706825</v>
       </c>
       <c r="I6">
-        <v>0.004122916549629707</v>
+        <v>0.002860747197750868</v>
       </c>
       <c r="J6">
-        <v>0.4094753513565337</v>
+        <v>0.3978353381510544</v>
       </c>
       <c r="K6">
-        <v>0.378840429401393</v>
+        <v>0.3269541987345193</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1700258120687934</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.08548587039048527</v>
       </c>
       <c r="N6">
-        <v>0.275322697300183</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2829689407814442</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.684971830286997</v>
+        <v>2.691196135776181</v>
       </c>
       <c r="C7">
-        <v>0.4971939164152843</v>
+        <v>0.5128083288764174</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04224621154095232</v>
+        <v>0.04113950971202573</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>0.5216676218769152</v>
+        <v>0.4314637431404265</v>
       </c>
       <c r="H7">
-        <v>0.002237962809602645</v>
+        <v>0.00153813449707918</v>
       </c>
       <c r="I7">
-        <v>0.003602311812794134</v>
+        <v>0.002545305828976829</v>
       </c>
       <c r="J7">
-        <v>0.4110332136501853</v>
+        <v>0.39313771464289</v>
       </c>
       <c r="K7">
-        <v>0.3769678306109761</v>
+        <v>0.3225283774428291</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.167310049772972</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.08417815016539976</v>
       </c>
       <c r="N7">
-        <v>0.2881333544643496</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2957883136320447</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.241564690906955</v>
+        <v>3.247633636074681</v>
       </c>
       <c r="C8">
-        <v>0.589401261163772</v>
+        <v>0.6129581393971364</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.04657027625413424</v>
+        <v>0.04465831193994863</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>1.390742831773494</v>
       </c>
       <c r="G8">
-        <v>0.5616305274750744</v>
+        <v>0.455674358452967</v>
       </c>
       <c r="H8">
-        <v>0.0007260608365498022</v>
+        <v>0.0004399043507918865</v>
       </c>
       <c r="I8">
-        <v>0.001767322212700151</v>
+        <v>0.001395737586719292</v>
       </c>
       <c r="J8">
-        <v>0.4213648704206889</v>
+        <v>0.3869618802564929</v>
       </c>
       <c r="K8">
-        <v>0.3723168702750144</v>
+        <v>0.3080336645851922</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.157872218048162</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.08080103547659867</v>
       </c>
       <c r="N8">
-        <v>0.3445492554658642</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.3525213881101195</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.333578629899193</v>
+        <v>4.337191049645241</v>
       </c>
       <c r="C9">
-        <v>0.7690225909354069</v>
+        <v>0.8128904199289195</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.05523527240696957</v>
+        <v>0.05159658106845022</v>
       </c>
       <c r="F9">
         <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.6549668434503246</v>
+        <v>0.5096143238540805</v>
       </c>
       <c r="H9">
-        <v>0.0001149978351726588</v>
+        <v>0.0001659027237259636</v>
       </c>
       <c r="I9">
-        <v>0.0007333532762672235</v>
+        <v>0.0009498719660943067</v>
       </c>
       <c r="J9">
-        <v>0.4499641745603071</v>
+        <v>0.3992652647632582</v>
       </c>
       <c r="K9">
-        <v>0.3715411122215322</v>
+        <v>0.2894687140881658</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1436582492618292</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.08147587331545125</v>
       </c>
       <c r="N9">
-        <v>0.4554918915664672</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.4644872811954173</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.137352862945136</v>
+        <v>5.13709975858211</v>
       </c>
       <c r="C10">
-        <v>0.9119609027611091</v>
+        <v>0.9629186579192321</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.05946408250986668</v>
+        <v>0.05489704510313231</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.6994242842334586</v>
+        <v>0.5430184860396565</v>
       </c>
       <c r="H10">
-        <v>0.00145708652260268</v>
+        <v>0.001406828011708772</v>
       </c>
       <c r="I10">
-        <v>0.002189464695618426</v>
+        <v>0.002351947929492226</v>
       </c>
       <c r="J10">
-        <v>0.4589652071645816</v>
+        <v>0.3690512775309713</v>
       </c>
       <c r="K10">
-        <v>0.3580271840625251</v>
+        <v>0.2628521591285278</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1286054565631485</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.07936157042425052</v>
       </c>
       <c r="N10">
-        <v>0.5172673293195942</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.5256764725996845</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.498029089478791</v>
+        <v>5.495984992190643</v>
       </c>
       <c r="C11">
-        <v>1.048601981019857</v>
+        <v>1.072646770215613</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.04980568286281439</v>
+        <v>0.04684714930307798</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.5068271428077367</v>
+        <v>0.4215776904565303</v>
       </c>
       <c r="H11">
-        <v>0.02008880747292707</v>
+        <v>0.01996229704311503</v>
       </c>
       <c r="I11">
-        <v>0.003310509814832052</v>
+        <v>0.003452760189262882</v>
       </c>
       <c r="J11">
-        <v>0.3539298446250569</v>
+        <v>0.2513736586387196</v>
       </c>
       <c r="K11">
-        <v>0.2469187877825263</v>
+        <v>0.1838082389507179</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.09996792345796202</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.05015574333100581</v>
       </c>
       <c r="N11">
-        <v>0.3806837676876853</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.3845034396977951</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.632853570269219</v>
+        <v>5.630340929766874</v>
       </c>
       <c r="C12">
-        <v>1.134775810232782</v>
+        <v>1.136209819686144</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.05059530931317191</v>
+        <v>0.04817976809821278</v>
       </c>
       <c r="F12">
         <v>2.518780942186353</v>
       </c>
       <c r="G12">
-        <v>0.3660914189999716</v>
+        <v>0.3241578953854116</v>
       </c>
       <c r="H12">
-        <v>0.05862535356776988</v>
+        <v>0.05848792429852523</v>
       </c>
       <c r="I12">
-        <v>0.003441358978864884</v>
+        <v>0.003546944342062375</v>
       </c>
       <c r="J12">
-        <v>0.2786200530020153</v>
+        <v>0.1959572524065365</v>
       </c>
       <c r="K12">
-        <v>0.1819177103671361</v>
+        <v>0.1451413811035271</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.08765875123589062</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.03396268293002258</v>
       </c>
       <c r="N12">
-        <v>0.2710604488889317</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2723813308746088</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.600069619134956</v>
+        <v>5.598294191320008</v>
       </c>
       <c r="C13">
-        <v>1.189635825900893</v>
+        <v>1.173925290878969</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.05904962432051164</v>
+        <v>0.05671155900437519</v>
       </c>
       <c r="F13">
         <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.2484027186527626</v>
+        <v>0.2317182736500882</v>
       </c>
       <c r="H13">
-        <v>0.1140586712140816</v>
+        <v>0.1139629260997452</v>
       </c>
       <c r="I13">
-        <v>0.003101944484630081</v>
+        <v>0.003259423464772482</v>
       </c>
       <c r="J13">
-        <v>0.2172126548804769</v>
+        <v>0.1725602196150966</v>
       </c>
       <c r="K13">
-        <v>0.143182709958138</v>
+        <v>0.1283159160590461</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08327599054716339</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.02536978581523819</v>
       </c>
       <c r="N13">
-        <v>0.1768511416609329</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1770304784557624</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.501235851774879</v>
+        <v>5.500450321044184</v>
       </c>
       <c r="C14">
-        <v>1.214798570146456</v>
+        <v>1.189448435375368</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.06959550507247947</v>
+        <v>0.06713097791692846</v>
       </c>
       <c r="F14">
         <v>2.457142640142266</v>
       </c>
       <c r="G14">
-        <v>0.1791557958862668</v>
+        <v>0.1725439182970447</v>
       </c>
       <c r="H14">
-        <v>0.163137247374209</v>
+        <v>0.1630836765830708</v>
       </c>
       <c r="I14">
-        <v>0.002766355147384658</v>
+        <v>0.003002308781881347</v>
       </c>
       <c r="J14">
-        <v>0.1817332425260503</v>
+        <v>0.1653463454395698</v>
       </c>
       <c r="K14">
-        <v>0.1304311130697351</v>
+        <v>0.1259137282404741</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08317733059790378</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.02304255866316729</v>
       </c>
       <c r="N14">
-        <v>0.1211033802403847</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1209974063053991</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.441353631655375</v>
+        <v>5.441049627319842</v>
       </c>
       <c r="C15">
-        <v>1.214597907544032</v>
+        <v>1.188111362880136</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07253445721723928</v>
+        <v>0.07009148273967014</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.1634129896317305</v>
+        <v>0.1577081587864413</v>
       </c>
       <c r="H15">
-        <v>0.1755293360411514</v>
+        <v>0.1754934791258478</v>
       </c>
       <c r="I15">
-        <v>0.002706920537142388</v>
+        <v>0.002997291205953267</v>
       </c>
       <c r="J15">
-        <v>0.1741661332148041</v>
+        <v>0.1661635978588691</v>
       </c>
       <c r="K15">
-        <v>0.1299852805579556</v>
+        <v>0.1271447462671897</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08360645095033536</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.02320813359380686</v>
       </c>
       <c r="N15">
-        <v>0.1085258564958664</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1084728203831062</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.100583626767218</v>
+        <v>5.102480027996933</v>
       </c>
       <c r="C16">
-        <v>1.140660254689408</v>
+        <v>1.126100179501407</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.06865576794934292</v>
+        <v>0.06705779812973667</v>
       </c>
       <c r="F16">
         <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.1668070481458912</v>
+        <v>0.1520128963454255</v>
       </c>
       <c r="H16">
-        <v>0.1622549646290423</v>
+        <v>0.1622744980289923</v>
       </c>
       <c r="I16">
-        <v>0.002108248078459773</v>
+        <v>0.002518223312294232</v>
       </c>
       <c r="J16">
-        <v>0.1815830600413406</v>
+        <v>0.1936872631860105</v>
       </c>
       <c r="K16">
-        <v>0.141674296895571</v>
+        <v>0.1375625293976217</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08585542982625061</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.02720444844362618</v>
       </c>
       <c r="N16">
-        <v>0.104447932843307</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1052958980856999</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.892477902734186</v>
+        <v>4.895394586338341</v>
       </c>
       <c r="C17">
-        <v>1.070896139287328</v>
+        <v>1.068407354738213</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.05929001228318498</v>
+        <v>0.05824624719186566</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.2037367583661549</v>
+        <v>0.1775050855568736</v>
       </c>
       <c r="H17">
-        <v>0.124242659113321</v>
+        <v>0.1242674868133093</v>
       </c>
       <c r="I17">
-        <v>0.001905896762501413</v>
+        <v>0.002346729331152098</v>
       </c>
       <c r="J17">
-        <v>0.2050290076813184</v>
+        <v>0.2225401105307299</v>
       </c>
       <c r="K17">
-        <v>0.1555596481135559</v>
+        <v>0.1480919869551198</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.08888003092205234</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.03130392549934724</v>
       </c>
       <c r="N17">
-        <v>0.1286535375061817</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1303642948328303</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.774198355668261</v>
+        <v>4.777457163046392</v>
       </c>
       <c r="C18">
-        <v>0.9962415034251251</v>
+        <v>1.009461189454981</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.04868689797836723</v>
+        <v>0.04777521576648702</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.2876607614430426</v>
+        <v>0.2393183941423942</v>
       </c>
       <c r="H18">
-        <v>0.0713778232607325</v>
+        <v>0.07140368614734172</v>
       </c>
       <c r="I18">
-        <v>0.001618668261543554</v>
+        <v>0.002015707815052892</v>
       </c>
       <c r="J18">
-        <v>0.2517759394590655</v>
+        <v>0.2633719231851757</v>
       </c>
       <c r="K18">
-        <v>0.1840315628230407</v>
+        <v>0.1673003209369366</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.09573321244550392</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.03855683461222359</v>
       </c>
       <c r="N18">
-        <v>0.1895534207169334</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1926485934204081</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.73638546475047</v>
+        <v>4.739430747161805</v>
       </c>
       <c r="C19">
-        <v>0.9306527537515308</v>
+        <v>0.9607756588846712</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.04471923738323547</v>
+        <v>0.04312773085523669</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.4154602235058746</v>
+        <v>0.3316842073914046</v>
       </c>
       <c r="H19">
-        <v>0.02627196286628219</v>
+        <v>0.02630849140516744</v>
       </c>
       <c r="I19">
-        <v>0.001781648986526108</v>
+        <v>0.002203741882026655</v>
       </c>
       <c r="J19">
-        <v>0.3194108737384056</v>
+        <v>0.3148476821067021</v>
       </c>
       <c r="K19">
-        <v>0.235928704288412</v>
+        <v>0.2002438488628329</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1079714457125025</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.05107757397291657</v>
       </c>
       <c r="N19">
-        <v>0.2909461651661758</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.296136336017554</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.925734197164957</v>
+        <v>4.926883078894548</v>
       </c>
       <c r="C20">
-        <v>0.8817925288541346</v>
+        <v>0.9340889796512499</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05790771185037791</v>
+        <v>0.05362936711231736</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.6700542214712613</v>
+        <v>0.5147250037832833</v>
       </c>
       <c r="H20">
-        <v>0.0009528537532470516</v>
+        <v>0.0009646557979907655</v>
       </c>
       <c r="I20">
-        <v>0.002386267775645656</v>
+        <v>0.002775190875362377</v>
       </c>
       <c r="J20">
-        <v>0.4474802670219304</v>
+        <v>0.3885431074235015</v>
       </c>
       <c r="K20">
-        <v>0.3518107290740815</v>
+        <v>0.2664941134502001</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.131270121678428</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.0785140107039588</v>
       </c>
       <c r="N20">
-        <v>0.5009323685010258</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.5098541772638754</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.544805566366506</v>
+        <v>5.540960239873812</v>
       </c>
       <c r="C21">
-        <v>0.9797577157329727</v>
+        <v>1.020382173169878</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.06460177926508592</v>
+        <v>0.0593992030029078</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.7493821986916345</v>
+        <v>0.605730640371462</v>
       </c>
       <c r="H21">
-        <v>0.002483234997052164</v>
+        <v>0.002213510069345448</v>
       </c>
       <c r="I21">
-        <v>0.004175809378799578</v>
+        <v>0.004208587016455212</v>
       </c>
       <c r="J21">
-        <v>0.4776061015939206</v>
+        <v>0.2948460794422942</v>
       </c>
       <c r="K21">
-        <v>0.365322845927281</v>
+        <v>0.2442296958945143</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1196501908890806</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.07639279191779025</v>
       </c>
       <c r="N21">
-        <v>0.5804505006754539</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.5869922509385361</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.950313921081545</v>
+        <v>5.94258628280619</v>
       </c>
       <c r="C22">
-        <v>1.0452038653317</v>
+        <v>1.075630295874191</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.06807498690058544</v>
+        <v>0.06245503390951868</v>
       </c>
       <c r="F22">
         <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.7961761007263561</v>
+        <v>0.6670991829165303</v>
       </c>
       <c r="H22">
-        <v>0.003928278148651376</v>
+        <v>0.00336259569619024</v>
       </c>
       <c r="I22">
-        <v>0.005549185120446332</v>
+        <v>0.005117784338977138</v>
       </c>
       <c r="J22">
-        <v>0.4947492663459059</v>
+        <v>0.2387022814635742</v>
       </c>
       <c r="K22">
-        <v>0.3716175889872488</v>
+        <v>0.2276341790773166</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1117551591298298</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.07423555912174606</v>
       </c>
       <c r="N22">
-        <v>0.6218291394750111</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.6263427291605836</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.733915241543627</v>
+        <v>5.728441798944402</v>
       </c>
       <c r="C23">
-        <v>1.007441253735948</v>
+        <v>1.04638766468355</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.06635136207022008</v>
+        <v>0.06087470117499016</v>
       </c>
       <c r="F23">
         <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0.7773074305288787</v>
+        <v>0.6341311503203428</v>
       </c>
       <c r="H23">
-        <v>0.003126529638062592</v>
+        <v>0.002736888777826185</v>
       </c>
       <c r="I23">
-        <v>0.004493323282932948</v>
+        <v>0.004270604215990126</v>
       </c>
       <c r="J23">
-        <v>0.4887276237172955</v>
+        <v>0.2788491792492636</v>
       </c>
       <c r="K23">
-        <v>0.3716584338111133</v>
+        <v>0.2407151240160026</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.117295970600221</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.07720167656896137</v>
       </c>
       <c r="N23">
-        <v>0.5994136347906789</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.6054126433462699</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.916339291822737</v>
+        <v>4.917443923288658</v>
       </c>
       <c r="C24">
-        <v>0.8702054413867018</v>
+        <v>0.92433380346273</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.05970237124144973</v>
+        <v>0.05515301788048799</v>
       </c>
       <c r="F24">
         <v>2.170038921572853</v>
       </c>
       <c r="G24">
-        <v>0.6986456006865893</v>
+        <v>0.5350703484965464</v>
       </c>
       <c r="H24">
-        <v>0.0008870456010876548</v>
+        <v>0.0008973511229898312</v>
       </c>
       <c r="I24">
-        <v>0.001930726785436043</v>
+        <v>0.002216854912408195</v>
       </c>
       <c r="J24">
-        <v>0.4622986368955253</v>
+        <v>0.4000277838900672</v>
       </c>
       <c r="K24">
-        <v>0.3675918022674374</v>
+        <v>0.2768100923039292</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1350460980698855</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.08247642170937297</v>
       </c>
       <c r="N24">
-        <v>0.5155150247625215</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.5248474368576836</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.037761243868545</v>
+        <v>4.042406551573094</v>
       </c>
       <c r="C25">
-        <v>0.7241993305789265</v>
+        <v>0.7636756694982694</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.05267943463971392</v>
+        <v>0.04953984194752703</v>
       </c>
       <c r="F25">
         <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0.6194494433707547</v>
+        <v>0.4846642032632644</v>
       </c>
       <c r="H25">
-        <v>4.19368368476114E-07</v>
+        <v>1.517279477591948E-05</v>
       </c>
       <c r="I25">
-        <v>0.001080165915254838</v>
+        <v>0.001300967372791284</v>
       </c>
       <c r="J25">
-        <v>0.4368756456567553</v>
+        <v>0.3998072404912563</v>
       </c>
       <c r="K25">
-        <v>0.36600896306987</v>
+        <v>0.2918685205618132</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1464860023477605</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.07988874924261502</v>
       </c>
       <c r="N25">
-        <v>0.4258257644300869</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.4346896288218005</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
